--- a/transrate_assemblies_2.xlsx
+++ b/transrate_assemblies_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16080" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="transrate_assemblies.csv" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>assembly</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>Assembly</t>
+  </si>
+  <si>
+    <t>Reads</t>
+  </si>
+  <si>
+    <t>%Reads mapped</t>
+  </si>
+  <si>
+    <t># contigs</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1055,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1060,7 +1068,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I3"/>
+      <selection activeCell="F1" sqref="F1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1069,7 +1077,7 @@
     <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
@@ -1081,16 +1089,16 @@
         <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>26</v>
@@ -1165,7 +1173,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
